--- a/data/trans_camb/CoPsoQ_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R-Estudios-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-6.542025747781574</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>18.63747847299565</v>
+        <v>18.63747847299566</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-8.205302526237695</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-16.98311201768146</v>
+        <v>-17.0041094467261</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.26391891545177</v>
+        <v>-2.11900796727559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-22.81199187448308</v>
+        <v>-21.03323353176644</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-27.36351544552663</v>
+        <v>-28.42840851574469</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-16.6510629456792</v>
+        <v>-15.60298647188801</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.117005502666279</v>
+        <v>-7.44557405963188</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.058660143118537</v>
+        <v>3.217537957627471</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>41.43015609336418</v>
+        <v>39.43439447779629</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.910258598067454</v>
+        <v>6.43091605883654</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.694698752745109</v>
+        <v>7.837284703398627</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.4457696827650197</v>
+        <v>0.364238926572807</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.77246486325134</v>
+        <v>23.50965367716632</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.2183896540991808</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.6221669913755199</v>
+        <v>0.6221669913755205</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.2166249749344973</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4968357848302339</v>
+        <v>-0.4860500300059257</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1112918607155646</v>
+        <v>-0.09839800594533601</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5409985084265896</v>
+        <v>-0.4907516851259665</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6768107231281364</v>
+        <v>-0.6676713181394308</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4506181787301689</v>
+        <v>-0.4332845096455303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1762785742410466</v>
+        <v>-0.2213012937237648</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1307278030354739</v>
+        <v>0.1208854397323515</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.575019404260991</v>
+        <v>1.512513445872405</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1884671269335344</v>
+        <v>0.1956071988868398</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2333292865229175</v>
+        <v>0.2634250136013878</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.01358720065101266</v>
+        <v>0.01332832075111655</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7642502197996143</v>
+        <v>0.7638704421871733</v>
       </c>
     </row>
     <row r="10">
@@ -772,13 +772,13 @@
         <v>-1.258497684618126</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.692156079392694</v>
+        <v>6.692156079392706</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.2833111432413354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.670849434467546</v>
+        <v>3.670849434467541</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.8955524671802079</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.58738049496629</v>
+        <v>-5.495453213801457</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2852156054245336</v>
+        <v>0.07572820015606248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.275373191106487</v>
+        <v>-5.030475247145572</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.997037916788143</v>
+        <v>-2.462295504538369</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.241097820425848</v>
+        <v>-4.129056091130039</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.621692210956904</v>
+        <v>0.6073510321781171</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.205964951076676</v>
+        <v>2.894728586465772</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.28297247287744</v>
+        <v>13.85071516747042</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.406250034800259</v>
+        <v>4.374082672263378</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.46241621832733</v>
+        <v>9.742678289372781</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.116357758913852</v>
+        <v>2.451066000673291</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.05716752519934</v>
+        <v>10.13764716495094</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-0.053397795809103</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.2839467948314027</v>
+        <v>0.2839467948314032</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.01283950325519177</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.1663608523262926</v>
+        <v>0.1663608523262924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.03895855013160245</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2214056750271834</v>
+        <v>-0.2145259468072268</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01085274969784852</v>
+        <v>0.004802108508728298</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2111584027893754</v>
+        <v>-0.2106191677683312</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08177192754135146</v>
+        <v>-0.1001459394535326</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1676813426298335</v>
+        <v>-0.1685280888336008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02055273148216804</v>
+        <v>0.009449151528143932</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1508785331938242</v>
+        <v>0.1318749695315862</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6446452195023729</v>
+        <v>0.6245642054349448</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2273170569833849</v>
+        <v>0.2224555412177917</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5373648032898445</v>
+        <v>0.484973040844022</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1001006015458442</v>
+        <v>0.1170420234383343</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4609193802159941</v>
+        <v>0.4580361815973037</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>5.124769823530221</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20.59670604814957</v>
+        <v>20.59670604814956</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>6.345473304757795</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5125297728264278</v>
+        <v>0.782801971539588</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.517693683942447</v>
+        <v>8.679959282667243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.334442709210317</v>
+        <v>-2.461745226783333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.81064614355376</v>
+        <v>10.79950489537978</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9045759186041104</v>
+        <v>1.032828306172779</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.07351362612301</v>
+        <v>12.06085437790706</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.06402618517082</v>
+        <v>13.45127675712651</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>28.48998379644283</v>
+        <v>28.47947393180932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.63849093209047</v>
+        <v>12.27466966653559</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31.91082840955514</v>
+        <v>30.74462697327325</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.75793884760027</v>
+        <v>10.95314576029979</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.81752807205702</v>
+        <v>27.28639361657939</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>0.269706464814041</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1.083963761563396</v>
+        <v>1.083963761563395</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3740464825179287</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02457332663926169</v>
+        <v>0.03773186253820478</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4824509682864294</v>
+        <v>0.4272748095916499</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1087032465270484</v>
+        <v>-0.09688991005270907</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4420660833096448</v>
+        <v>0.4379890013339318</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04061828797135088</v>
+        <v>0.05461718856615569</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6480343524063952</v>
+        <v>0.6365424884468501</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.072790639095246</v>
+        <v>1.105537193031386</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.350510026029895</v>
+        <v>2.129888727877002</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.84160482578532</v>
+        <v>0.8751748255824776</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.015769300120274</v>
+        <v>2.020040625050893</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7588137653288822</v>
+        <v>0.7401138822409907</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.835619155005454</v>
+        <v>1.815431211024384</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>-0.5656354110569473</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.317688500429167</v>
+        <v>6.317688500429161</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.2542981155482571</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.517967385985842</v>
+        <v>-3.274954086363176</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.922845349288845</v>
+        <v>4.453805220530473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.245482695339646</v>
+        <v>-4.261720420417632</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.046288585801542</v>
+        <v>1.247681979780435</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.681722270342007</v>
+        <v>-2.623408718741291</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.63367141557829</v>
+        <v>4.62543053132338</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.043342518449577</v>
+        <v>3.16628082442544</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.64407922958248</v>
+        <v>15.90111646451367</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.424538698193424</v>
+        <v>3.590340712891905</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.76738235490764</v>
+        <v>11.39988190491994</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.192863575507998</v>
+        <v>2.51198566944972</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.52298401088423</v>
+        <v>12.05794488069098</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>-0.02398629900423448</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.2679074938107988</v>
+        <v>0.2679074938107985</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.01107326323348413</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1436698906479565</v>
+        <v>-0.13652769752335</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1982006534325281</v>
+        <v>0.1913679993521107</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1630562656943466</v>
+        <v>-0.1652561270175387</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04062965311112634</v>
+        <v>0.05123796158540534</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1127789710519618</v>
+        <v>-0.1086588356380369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1935360472677204</v>
+        <v>0.1947948710096579</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1455462237769168</v>
+        <v>0.1505612608000162</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7072862324482824</v>
+        <v>0.7528378757948427</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.160256778113002</v>
+        <v>0.1643564443845104</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5265982978713597</v>
+        <v>0.5359558774084754</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1005921070322671</v>
+        <v>0.1177656398672677</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5689221115878179</v>
+        <v>0.5461257592358317</v>
       </c>
     </row>
     <row r="28">
